--- a/Property_list_with_predictions.xlsx
+++ b/Property_list_with_predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IITGN\Placement_prep\Real-Estate-Search-Engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E332CCC-A0FA-49A1-BA3A-B14A47D3925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DAA5CF-0D46-46ED-8AA9-E1A599842935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="477">
   <si>
     <t>property_id</t>
   </si>
@@ -55,7 +55,16 @@
     <t>metadata_tags</t>
   </si>
   <si>
-    <t>floorplan_json</t>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>halls</t>
+  </si>
+  <si>
+    <t>kitchens</t>
+  </si>
+  <si>
+    <t>garages</t>
   </si>
   <si>
     <t>PROP-10001</t>
@@ -82,9 +91,6 @@
     <t>furnished,resale,investment-property</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 1, "kitchens": 0, "bathrooms": 4}</t>
-  </si>
-  <si>
     <t>PROP-10002</t>
   </si>
   <si>
@@ -104,9 +110,6 @@
   </si>
   <si>
     <t>newly-built,semi-furnished,gated-community,near-metro</t>
-  </si>
-  <si>
-    <t>{"rooms": 0, "halls": 9, "kitchens": 0, "bathrooms": 1}</t>
   </si>
   <si>
     <t>PROP-10003</t>
@@ -131,9 +134,6 @@
     <t>resale,semi-furnished</t>
   </si>
   <si>
-    <t>{"rooms": 1, "halls": 0, "kitchens": 4, "bathrooms": 4}</t>
-  </si>
-  <si>
     <t>PROP-10004</t>
   </si>
   <si>
@@ -159,9 +159,6 @@
     <t>gated-community</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 9, "kitchens": 0, "bathrooms": 0}</t>
-  </si>
-  <si>
     <t>PROP-10005</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
   </si>
   <si>
     <t>pet-friendly,newly-built,resale</t>
-  </si>
-  <si>
-    <t>{"rooms": 0, "halls": 1, "kitchens": 0, "bathrooms": 0}</t>
   </si>
   <si>
     <t>PROP-10008</t>
@@ -247,9 +241,6 @@
     <t>near-metro,newly-built</t>
   </si>
   <si>
-    <t>{"rooms": 3, "halls": 0, "kitchens": 3, "bathrooms": 3}</t>
-  </si>
-  <si>
     <t>PROP-10009</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
     <t>pet-friendly,near-metro</t>
   </si>
   <si>
-    <t>{"rooms": 1, "halls": 0, "kitchens": 0, "bathrooms": 1}</t>
-  </si>
-  <si>
     <t>PROP-10010</t>
   </si>
   <si>
@@ -293,9 +281,6 @@
   </si>
   <si>
     <t>investment-property,gated-community,newly-built,semi-furnished</t>
-  </si>
-  <si>
-    <t>{"rooms": 0, "halls": 8, "kitchens": 0, "bathrooms": 4}</t>
   </si>
   <si>
     <t>PROP-10011</t>
@@ -317,9 +302,6 @@
     <t>furnished,gated-community</t>
   </si>
   <si>
-    <t>{"rooms": 2, "halls": 0, "kitchens": 3, "bathrooms": 5}</t>
-  </si>
-  <si>
     <t>PROP-10012</t>
   </si>
   <si>
@@ -339,9 +321,6 @@
     <t>furnished,resale</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 2, "kitchens": 0, "bathrooms": 5}</t>
-  </si>
-  <si>
     <t>PROP-10013</t>
   </si>
   <si>
@@ -361,9 +340,6 @@
     <t>unfurnished,newly-built</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 0, "kitchens": 3, "bathrooms": 3}</t>
-  </si>
-  <si>
     <t>PROP-10014</t>
   </si>
   <si>
@@ -382,9 +358,6 @@
     <t>semi-furnished,investment-property,furnished,newly-built</t>
   </si>
   <si>
-    <t>{"rooms": 3, "halls": 0, "kitchens": 8, "bathrooms": 5}</t>
-  </si>
-  <si>
     <t>PROP-10015</t>
   </si>
   <si>
@@ -404,9 +377,6 @@
   </si>
   <si>
     <t>semi-furnished,unfurnished</t>
-  </si>
-  <si>
-    <t>{"rooms": 0, "halls": 4, "kitchens": 3, "bathrooms": 7}</t>
   </si>
   <si>
     <t>PROP-10016</t>
@@ -428,9 +398,6 @@
     <t>resale</t>
   </si>
   <si>
-    <t>{"rooms": 5, "halls": 0, "kitchens": 4, "bathrooms": 1}</t>
-  </si>
-  <si>
     <t>PROP-10017</t>
   </si>
   <si>
@@ -470,9 +437,6 @@
     <t>near-metro,investment-property,semi-furnished</t>
   </si>
   <si>
-    <t>{"rooms": 2, "halls": 0, "kitchens": 4, "bathrooms": 0}</t>
-  </si>
-  <si>
     <t>PROP-10019</t>
   </si>
   <si>
@@ -494,9 +458,6 @@
     <t>gated-community,near-metro</t>
   </si>
   <si>
-    <t>{"rooms": 2, "halls": 0, "kitchens": 4, "bathrooms": 2}</t>
-  </si>
-  <si>
     <t>PROP-10020</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>resale,investment-property</t>
   </si>
   <si>
-    <t>{"rooms": 5, "halls": 0, "kitchens": 6, "bathrooms": 3}</t>
-  </si>
-  <si>
     <t>PROP-10021</t>
   </si>
   <si>
@@ -534,9 +492,6 @@
   </si>
   <si>
     <t>newly-built,resale,semi-furnished,gated-community</t>
-  </si>
-  <si>
-    <t>{"rooms": 4, "halls": 0, "kitchens": 3, "bathrooms": 0}</t>
   </si>
   <si>
     <t>PROP-10022</t>
@@ -576,9 +531,6 @@
     <t>gated-community,pet-friendly</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 9, "kitchens": 1, "bathrooms": 4}</t>
-  </si>
-  <si>
     <t>PROP-10024</t>
   </si>
   <si>
@@ -601,9 +553,6 @@
     <t>newly-built,pet-friendly,gated-community</t>
   </si>
   <si>
-    <t>{"rooms": 1, "halls": 0, "kitchens": 6, "bathrooms": 1}</t>
-  </si>
-  <si>
     <t>PROP-10025</t>
   </si>
   <si>
@@ -623,9 +572,6 @@
   </si>
   <si>
     <t>newly-built,gated-community,unfurnished,resale</t>
-  </si>
-  <si>
-    <t>{"rooms": 0, "halls": 0, "kitchens": 0, "bathrooms": 0}</t>
   </si>
   <si>
     <t>PROP-10026</t>
@@ -647,9 +593,6 @@
     <t>near-metro,investment-property</t>
   </si>
   <si>
-    <t>{"rooms": 1, "halls": 0, "kitchens": 4, "bathrooms": 3}</t>
-  </si>
-  <si>
     <t>PROP-10027</t>
   </si>
   <si>
@@ -666,9 +609,6 @@
   </si>
   <si>
     <t>gated-community,unfurnished,near-metro,semi-furnished</t>
-  </si>
-  <si>
-    <t>{"rooms": 0, "halls": 4, "kitchens": 3, "bathrooms": 6}</t>
   </si>
   <si>
     <t>PROP-10028</t>
@@ -690,9 +630,6 @@
     <t>structural-safety.pdf|green-building.pdf|fire-safety.pdf</t>
   </si>
   <si>
-    <t>{"rooms": 2, "halls": 0, "kitchens": 6, "bathrooms": 0}</t>
-  </si>
-  <si>
     <t>PROP-10029</t>
   </si>
   <si>
@@ -712,9 +649,6 @@
     <t>pet-friendly,newly-built,furnished</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 9, "kitchens": 0, "bathrooms": 4}</t>
-  </si>
-  <si>
     <t>PROP-10030</t>
   </si>
   <si>
@@ -734,9 +668,6 @@
     <t>pest-control.pdf|structural-safety.pdf|fire-safety.pdf</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 8, "kitchens": 0, "bathrooms": 5}</t>
-  </si>
-  <si>
     <t>PROP-10031</t>
   </si>
   <si>
@@ -759,9 +690,6 @@
     <t>semi-furnished,pet-friendly,unfurnished,newly-built</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 4, "kitchens": 4, "bathrooms": 4}</t>
-  </si>
-  <si>
     <t>PROP-10032</t>
   </si>
   <si>
@@ -783,9 +711,6 @@
     <t>newly-built,investment-property,gated-community,unfurnished</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 2, "kitchens": 4, "bathrooms": 4}</t>
-  </si>
-  <si>
     <t>PROP-10033</t>
   </si>
   <si>
@@ -807,9 +732,6 @@
     <t>semi-furnished,unfurnished,investment-property,resale</t>
   </si>
   <si>
-    <t>{"rooms": 1, "halls": 2, "kitchens": 6, "bathrooms": 3}</t>
-  </si>
-  <si>
     <t>PROP-10034</t>
   </si>
   <si>
@@ -826,9 +748,6 @@
   </si>
   <si>
     <t>pest-control.pdf|green-building.pdf|structural-safety.pdf</t>
-  </si>
-  <si>
-    <t>{"rooms": 0, "halls": 8, "kitchens": 3, "bathrooms": 2}</t>
   </si>
   <si>
     <t>PROP-10035</t>
@@ -868,9 +787,6 @@
     <t>unfurnished,investment-property</t>
   </si>
   <si>
-    <t>{"rooms": 1, "halls": 0, "kitchens": 1, "bathrooms": 3}</t>
-  </si>
-  <si>
     <t>PROP-10037</t>
   </si>
   <si>
@@ -887,9 +803,6 @@
   </si>
   <si>
     <t>semi-furnished,near-metro,pet-friendly</t>
-  </si>
-  <si>
-    <t>{"rooms": 1, "halls": 0, "kitchens": 6, "bathrooms": 4}</t>
   </si>
   <si>
     <t>PROP-10038</t>
@@ -914,9 +827,6 @@
     <t>semi-furnished,resale</t>
   </si>
   <si>
-    <t>{"rooms": 3, "halls": 0, "kitchens": 4, "bathrooms": 0}</t>
-  </si>
-  <si>
     <t>PROP-10039</t>
   </si>
   <si>
@@ -936,9 +846,6 @@
     <t>investment-property,gated-community,newly-built,unfurnished</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 8, "kitchens": 0, "bathrooms": 1}</t>
-  </si>
-  <si>
     <t>PROP-10040</t>
   </si>
   <si>
@@ -958,9 +865,6 @@
   </si>
   <si>
     <t>gated-community,semi-furnished,furnished,investment-property</t>
-  </si>
-  <si>
-    <t>{"rooms": 2, "halls": 0, "kitchens": 5, "bathrooms": 2}</t>
   </si>
   <si>
     <t>PROP-10041</t>
@@ -982,9 +886,6 @@
     <t>furnished,investment-property</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 0, "kitchens": 4, "bathrooms": 4}</t>
-  </si>
-  <si>
     <t>PROP-10042</t>
   </si>
   <si>
@@ -1006,9 +907,6 @@
     <t>near-metro,pet-friendly</t>
   </si>
   <si>
-    <t>{"rooms": 1, "halls": 0, "kitchens": 4, "bathrooms": 1}</t>
-  </si>
-  <si>
     <t>PROP-10043</t>
   </si>
   <si>
@@ -1025,9 +923,6 @@
   </si>
   <si>
     <t>investment-property</t>
-  </si>
-  <si>
-    <t>{"rooms": 0, "halls": 8, "kitchens": 0, "bathrooms": 2}</t>
   </si>
   <si>
     <t>PROP-10044</t>
@@ -1074,9 +969,6 @@
     <t>near-metro</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 0, "kitchens": 3, "bathrooms": 4}</t>
-  </si>
-  <si>
     <t>PROP-10046</t>
   </si>
   <si>
@@ -1117,9 +1009,6 @@
     <t>near-metro,semi-furnished,furnished</t>
   </si>
   <si>
-    <t>{"rooms": 1, "halls": 0, "kitchens": 6, "bathrooms": 5}</t>
-  </si>
-  <si>
     <t>PROP-10048</t>
   </si>
   <si>
@@ -1138,9 +1027,6 @@
     <t>pet-friendly,furnished,resale,near-metro</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 0, "kitchens": 3, "bathrooms": 0}</t>
-  </si>
-  <si>
     <t>PROP-10049</t>
   </si>
   <si>
@@ -1157,9 +1043,6 @@
   </si>
   <si>
     <t>semi-furnished</t>
-  </si>
-  <si>
-    <t>{"rooms": 0, "halls": 0, "kitchens": 5, "bathrooms": 7}</t>
   </si>
   <si>
     <t>PROP-10050</t>
@@ -1199,9 +1082,6 @@
     <t>investment-property,near-metro</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 9, "kitchens": 0, "bathrooms": 5}</t>
-  </si>
-  <si>
     <t>PROP-10052</t>
   </si>
   <si>
@@ -1257,9 +1137,6 @@
     <t>gated-community,newly-built</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 0, "kitchens": 0, "bathrooms": 3}</t>
-  </si>
-  <si>
     <t>PROP-10055</t>
   </si>
   <si>
@@ -1301,9 +1178,6 @@
     <t>newly-built,near-metro</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 0, "kitchens": 5, "bathrooms": 2}</t>
-  </si>
-  <si>
     <t>PROP-10057</t>
   </si>
   <si>
@@ -1332,9 +1206,6 @@
   </si>
   <si>
     <t>H.No. 898, Kota, Tenali, Telangana</t>
-  </si>
-  <si>
-    <t>{"rooms": 0, "halls": 0, "kitchens": 3, "bathrooms": 2}</t>
   </si>
   <si>
     <t>PROP-10059</t>
@@ -1353,9 +1224,6 @@
 Yohannan Circle, Asansol, Jharkhand</t>
   </si>
   <si>
-    <t>{"rooms": 1, "halls": 2, "kitchens": 6, "bathrooms": 5}</t>
-  </si>
-  <si>
     <t>PROP-10060</t>
   </si>
   <si>
@@ -1377,9 +1245,6 @@
     <t>unfurnished,furnished</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 0, "kitchens": 6, "bathrooms": 5}</t>
-  </si>
-  <si>
     <t>PROP-10061</t>
   </si>
   <si>
@@ -1398,9 +1263,6 @@
     <t>gated-community,near-metro,furnished</t>
   </si>
   <si>
-    <t>{"rooms": 1, "halls": 0, "kitchens": 3, "bathrooms": 5}</t>
-  </si>
-  <si>
     <t>PROP-10062</t>
   </si>
   <si>
@@ -1434,9 +1296,6 @@
     <t>furnished,pet-friendly,resale,unfurnished</t>
   </si>
   <si>
-    <t>{"rooms": 1, "halls": 0, "kitchens": 4, "bathrooms": 2}</t>
-  </si>
-  <si>
     <t>PROP-10064</t>
   </si>
   <si>
@@ -1474,9 +1333,6 @@
   </si>
   <si>
     <t>investment-property,newly-built,gated-community,semi-furnished</t>
-  </si>
-  <si>
-    <t>{"rooms": 0, "halls": 9, "kitchens": 3, "bathrooms": 5}</t>
   </si>
   <si>
     <t>PROP-10066</t>
@@ -1501,9 +1357,6 @@
     <t>investment-property,furnished</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 9, "kitchens": 3, "bathrooms": 4}</t>
-  </si>
-  <si>
     <t>PROP-10067</t>
   </si>
   <si>
@@ -1520,9 +1373,6 @@
     <t>resale,semi-furnished,investment-property,furnished</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 7, "kitchens": 0, "bathrooms": 3}</t>
-  </si>
-  <si>
     <t>PROP-10068</t>
   </si>
   <si>
@@ -1561,9 +1411,6 @@
     <t>gated-community,unfurnished,investment-property,newly-built</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 3, "kitchens": 0, "bathrooms": 2}</t>
-  </si>
-  <si>
     <t>PROP-10070</t>
   </si>
   <si>
@@ -1595,9 +1442,6 @@
   </si>
   <si>
     <t>investment-property,near-metro,furnished</t>
-  </si>
-  <si>
-    <t>{"rooms": 2, "halls": 0, "kitchens": 6, "bathrooms": 5}</t>
   </si>
   <si>
     <t>PROP-10072</t>
@@ -1637,7 +1481,7 @@
     <t>unfurnished,near-metro,investment-property,newly-built</t>
   </si>
   <si>
-    <t>{"rooms": 0, "halls": 1, "kitchens": 4, "bathrooms": 5}</t>
+    <t>bedrooms</t>
   </si>
 </sst>
 </file>
@@ -2004,27 +1848,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.77734375" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2061,110 +1893,158 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>48514810</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
         <v>44995.886962326389</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>33047296</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2">
         <v>45962.178508356483</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>27629146</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2">
         <v>45528.874233738417</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2198,25 +2078,37 @@
       <c r="K5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
       </c>
       <c r="F6">
         <v>45638210</v>
@@ -2228,109 +2120,145 @@
         <v>45588.959915671287</v>
       </c>
       <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
       </c>
       <c r="F7">
         <v>6058145</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2">
         <v>45338.958277800928</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <v>3560359452</v>
       </c>
       <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
       </c>
       <c r="F8">
         <v>37247350</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2">
         <v>45850.743326354168</v>
       </c>
       <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
         <v>65</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="L8" t="s">
+      <c r="B9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
       </c>
       <c r="F9">
         <v>12800556</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2">
         <v>45382.033201562503</v>
@@ -2339,322 +2267,430 @@
         <v>9627078693</v>
       </c>
       <c r="K9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="L9" t="s">
+      <c r="C10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
       </c>
       <c r="F10">
         <v>5566303</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H10" s="2">
         <v>44945.756836284723</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J10">
         <v>917709000000</v>
       </c>
       <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
         <v>81</v>
       </c>
-      <c r="L10" t="s">
+      <c r="D11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
         <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
       </c>
       <c r="F11">
         <v>26106262</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H11" s="2">
         <v>45855.168207037037</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J11">
         <v>5089177270</v>
       </c>
       <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
         <v>89</v>
       </c>
-      <c r="L11" t="s">
+      <c r="E12" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
       </c>
       <c r="F12">
         <v>37413863</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2">
         <v>45943.598444224539</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J12">
         <v>9259816416</v>
       </c>
       <c r="K12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
         <v>96</v>
-      </c>
-      <c r="L12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>102</v>
       </c>
       <c r="F13">
         <v>23812388</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2">
         <v>45799.637583935182</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J13">
         <v>1409107054</v>
       </c>
       <c r="K13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F14">
         <v>44102021</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2">
         <v>45395.600630347217</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J14">
         <v>5950424146</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F15">
         <v>27014973</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="2">
         <v>45722.947957939818</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F16">
         <v>9462500</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H16" s="2">
         <v>45794.45106871528</v>
       </c>
       <c r="I16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J16">
         <v>7724963955</v>
       </c>
       <c r="K16" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F17">
         <v>26032673</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H17" s="2">
         <v>45394.109067048608</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F18">
         <v>10430907</v>
@@ -2666,62 +2702,86 @@
         <v>45262.951407048611</v>
       </c>
       <c r="K18" t="s">
-        <v>139</v>
-      </c>
-      <c r="L18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F19">
         <v>18129280</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2">
         <v>45232.225250972217</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F20">
         <v>48985310</v>
@@ -2733,141 +2793,189 @@
         <v>45349.515603113417</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F21">
         <v>5896790</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H21" s="2">
         <v>45624.068495914347</v>
       </c>
       <c r="K21" t="s">
-        <v>161</v>
-      </c>
-      <c r="L21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F22">
         <v>21131805</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2">
         <v>45660.345884884257</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s">
-        <v>168</v>
-      </c>
-      <c r="L22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F23">
         <v>7621972</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H23" s="2">
         <v>44878.919944479167</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J23">
         <v>8605784848</v>
       </c>
       <c r="K23" t="s">
-        <v>175</v>
-      </c>
-      <c r="L23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F24">
         <v>42383933</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2">
         <v>45780.455911909718</v>
@@ -2876,109 +2984,145 @@
         <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
-      </c>
-      <c r="L24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F25">
         <v>5528272</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H25" s="2">
         <v>45454.977059143523</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="J25">
         <v>1105464866</v>
       </c>
       <c r="K25" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F26">
         <v>17889505</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H26" s="2">
         <v>45406.479802569447</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="J26">
         <v>2657208200</v>
       </c>
       <c r="K26" t="s">
-        <v>197</v>
-      </c>
-      <c r="L26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="F27">
         <v>24073220</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H27" s="2">
         <v>45257.617869872687</v>
@@ -2987,27 +3131,39 @@
         <v>917985000000</v>
       </c>
       <c r="K27" t="s">
-        <v>204</v>
-      </c>
-      <c r="L27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D28" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="F28">
         <v>24142924</v>
@@ -3019,103 +3175,139 @@
         <v>45874.384056041657</v>
       </c>
       <c r="I28" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K28" t="s">
-        <v>211</v>
-      </c>
-      <c r="L28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F29">
         <v>9591522</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H29" s="2">
         <v>45443.163208935177</v>
       </c>
       <c r="I29" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
-      </c>
-      <c r="L29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F30">
         <v>10382933</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H30" s="2">
         <v>45131.950540833343</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J30">
         <v>3735675343</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
-      </c>
-      <c r="L30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F31">
         <v>10635838</v>
@@ -3127,223 +3319,295 @@
         <v>45743.632672881948</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="J31">
         <v>3686192186</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L31" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="F32">
         <v>19668862</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2">
         <v>45264.433823472224</v>
       </c>
       <c r="I32" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="J32">
         <v>5287722939</v>
       </c>
       <c r="K32" t="s">
-        <v>240</v>
-      </c>
-      <c r="L32" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C33" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="E33" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="F33">
         <v>3265338</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H33" s="2">
         <v>45696.51508892361</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="J33">
         <v>912225000000</v>
       </c>
       <c r="K33" t="s">
-        <v>248</v>
-      </c>
-      <c r="L33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B34" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F34">
         <v>25326621</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H34" s="2">
         <v>45369.818937696757</v>
       </c>
       <c r="I34" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s">
-        <v>256</v>
-      </c>
-      <c r="L34" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="D35" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E35" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="F35">
         <v>42574721</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H35" s="2">
         <v>45636.16145565972</v>
       </c>
       <c r="I35" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="J35">
         <v>912887000000</v>
       </c>
       <c r="K35" t="s">
-        <v>96</v>
-      </c>
-      <c r="L35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="D36" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="F36">
         <v>38354323</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H36" s="2">
         <v>45253.058835219897</v>
       </c>
       <c r="I36" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="K36" t="s">
-        <v>81</v>
-      </c>
-      <c r="L36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="C37" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="D37" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="E37" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="F37">
         <v>6176514</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H37" s="2">
         <v>45849.305051076393</v>
@@ -3352,33 +3616,45 @@
         <v>2072223097</v>
       </c>
       <c r="K37" t="s">
-        <v>276</v>
-      </c>
-      <c r="L37" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="C38" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="E38" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="F38">
         <v>48800176</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H38" s="2">
         <v>45640.834188865738</v>
@@ -3387,211 +3663,283 @@
         <v>6578082024</v>
       </c>
       <c r="K38" t="s">
-        <v>283</v>
-      </c>
-      <c r="L38" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C39" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="D39" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E39" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="F39">
         <v>38111649</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H39" s="2">
         <v>45015.52669150463</v>
       </c>
       <c r="I39" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="J39">
         <v>916896000000</v>
       </c>
       <c r="K39" t="s">
-        <v>291</v>
-      </c>
-      <c r="L39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="C40" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="D40" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="E40" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="F40">
         <v>24090541</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H40" s="2">
         <v>45469.3907415625</v>
       </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J40">
         <v>8807536272</v>
       </c>
       <c r="K40" t="s">
-        <v>298</v>
-      </c>
-      <c r="L40" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="C41" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="D41" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="E41" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="F41">
         <v>40753167</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H41" s="2">
         <v>45051.248942905091</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="K41" t="s">
-        <v>306</v>
-      </c>
-      <c r="L41" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>6</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="C42" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="D42" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="E42" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="F42">
         <v>6908151</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H42" s="2">
         <v>45178.759870057867</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K42" t="s">
-        <v>313</v>
-      </c>
-      <c r="L42" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="C43" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="D43" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="E43" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="F43">
         <v>6745273</v>
       </c>
       <c r="G43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H43" s="2">
         <v>44883.41687857639</v>
       </c>
       <c r="I43" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="J43">
         <v>914798000000</v>
       </c>
       <c r="K43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L43" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C44" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="D44" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="E44" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="F44">
         <v>6728235</v>
@@ -3603,68 +3951,92 @@
         <v>45326.942554479167</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K44" t="s">
-        <v>328</v>
-      </c>
-      <c r="L44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>8</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="P44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="B45" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="C45" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="D45" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="E45" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="F45">
         <v>2277205</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H45" s="2">
         <v>45009.625931331022</v>
       </c>
       <c r="I45" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="J45">
         <v>8045061937</v>
       </c>
       <c r="K45" t="s">
-        <v>336</v>
-      </c>
-      <c r="L45" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>5</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C46" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="D46" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="E46" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="F46">
         <v>31822126</v>
@@ -3676,237 +4048,321 @@
         <v>45339.635723599538</v>
       </c>
       <c r="I46" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="J46">
         <v>917605000000</v>
       </c>
       <c r="K46" t="s">
-        <v>343</v>
-      </c>
-      <c r="L46" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46">
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="C47" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="D47" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="E47" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="F47">
         <v>43409838</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H47" s="2">
         <v>45206.349669861112</v>
       </c>
       <c r="I47" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="K47" t="s">
-        <v>351</v>
-      </c>
-      <c r="L47" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="C48" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="D48" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="E48" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="F48">
         <v>47386559</v>
       </c>
       <c r="G48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H48" s="2">
         <v>45625.362730173612</v>
       </c>
       <c r="K48" t="s">
-        <v>357</v>
-      </c>
-      <c r="L48" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
+      </c>
+      <c r="P48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="C49" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="D49" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="E49" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="F49">
         <v>14907237</v>
       </c>
       <c r="G49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H49" s="2">
         <v>44943.734563124999</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s">
-        <v>364</v>
-      </c>
-      <c r="L49" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="C50" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="D50" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="E50" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="F50">
         <v>41223288</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H50" s="2">
         <v>45378.676123020843</v>
       </c>
       <c r="K50" t="s">
-        <v>371</v>
-      </c>
-      <c r="L50" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>5</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C51" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="D51" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="E51" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="F51">
         <v>27779525</v>
       </c>
       <c r="G51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H51" s="2">
         <v>45427.724697777783</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s">
-        <v>378</v>
-      </c>
-      <c r="L51" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="D52" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="E52" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="F52">
         <v>41708565</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H52" s="2">
         <v>45383.665231701387</v>
       </c>
       <c r="I52" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K52" t="s">
-        <v>384</v>
-      </c>
-      <c r="L52" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>5</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="C53" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="D53" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E53" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="F53">
         <v>5052334</v>
@@ -3918,132 +4374,180 @@
         <v>45386.765599525461</v>
       </c>
       <c r="I53" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s">
-        <v>391</v>
-      </c>
-      <c r="L53" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>6</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="C54" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D54" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="E54" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="F54">
         <v>17515481</v>
       </c>
       <c r="G54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H54" s="2">
         <v>44927.164107592587</v>
       </c>
       <c r="K54" t="s">
-        <v>397</v>
-      </c>
-      <c r="L54" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>9</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="C55" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="D55" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="E55" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="F55">
         <v>32061214</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H55" s="2">
         <v>45171.068037268516</v>
       </c>
       <c r="I55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K55" t="s">
-        <v>403</v>
-      </c>
-      <c r="L55" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>5</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+      <c r="P55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="B56" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="C56" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="D56" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="E56" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="F56">
         <v>19001385</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H56" s="2">
         <v>45542.05270270833</v>
       </c>
       <c r="I56" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="K56" t="s">
-        <v>411</v>
-      </c>
-      <c r="L56" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="C57" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="D57" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="E57" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="F57">
         <v>34481144</v>
@@ -4055,36 +4559,48 @@
         <v>45197.112014467602</v>
       </c>
       <c r="I57" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="K57" t="s">
-        <v>417</v>
-      </c>
-      <c r="L57" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>5</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="C58" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="D58" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="E58" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="F58">
         <v>11408047</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H58" s="2">
         <v>45103.334016446759</v>
@@ -4093,27 +4609,39 @@
         <v>9280406137</v>
       </c>
       <c r="K58" t="s">
-        <v>371</v>
-      </c>
-      <c r="L58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>5</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>5</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="C59" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="D59" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="E59" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="F59">
         <v>19069646</v>
@@ -4125,68 +4653,92 @@
         <v>45194.557859351851</v>
       </c>
       <c r="I59" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="K59" t="s">
-        <v>73</v>
-      </c>
-      <c r="L59" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59">
+        <v>5</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="B60" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
       <c r="C60" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="D60" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="E60" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="F60">
         <v>30106465</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H60" s="2">
         <v>45697.94693672454</v>
       </c>
       <c r="I60" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J60">
         <v>8798946863</v>
       </c>
       <c r="K60" t="s">
-        <v>328</v>
-      </c>
-      <c r="L60" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60">
+        <v>5</v>
+      </c>
+      <c r="P60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="B61" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="C61" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="D61" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="E61" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="F61">
         <v>46393841</v>
@@ -4198,33 +4750,45 @@
         <v>45232.806246631953</v>
       </c>
       <c r="I61" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="J61">
         <v>911462000000</v>
       </c>
       <c r="K61" t="s">
-        <v>442</v>
-      </c>
-      <c r="L61" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+      <c r="L61">
+        <v>5</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="B62" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="C62" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="D62" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="E62" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="F62">
         <v>15251671</v>
@@ -4236,138 +4800,186 @@
         <v>45900.640626388893</v>
       </c>
       <c r="I62" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="J62">
         <v>915962000000</v>
       </c>
       <c r="K62" t="s">
-        <v>449</v>
-      </c>
-      <c r="L62" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="C63" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="D63" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="E63" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="F63">
         <v>41591513</v>
       </c>
       <c r="G63" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H63" s="2">
         <v>45266.53151508102</v>
       </c>
       <c r="K63" t="s">
-        <v>455</v>
-      </c>
-      <c r="L63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="C64" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="D64" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="E64" t="s">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="F64">
         <v>38566476</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H64" s="2">
         <v>45838.642993518522</v>
       </c>
       <c r="I64" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="J64">
         <v>669662326</v>
       </c>
       <c r="K64" t="s">
-        <v>461</v>
-      </c>
-      <c r="L64" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="B65" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="C65" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="D65" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="E65" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="F65">
         <v>3922424</v>
       </c>
       <c r="G65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H65" s="2">
         <v>45330.169894525461</v>
       </c>
       <c r="I65" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="K65" t="s">
-        <v>181</v>
-      </c>
-      <c r="L65" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <v>9</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65">
+        <v>5</v>
+      </c>
+      <c r="P65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="C66" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="D66" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="E66" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="F66">
         <v>32195143</v>
@@ -4379,33 +4991,45 @@
         <v>45171.840529004628</v>
       </c>
       <c r="I66" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="J66">
         <v>917509000000</v>
       </c>
       <c r="K66" t="s">
-        <v>475</v>
-      </c>
-      <c r="L66" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66">
+        <v>5</v>
+      </c>
+      <c r="P66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
       <c r="B67" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="C67" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
       <c r="D67" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="E67" t="s">
-        <v>481</v>
+        <v>433</v>
       </c>
       <c r="F67">
         <v>26584753</v>
@@ -4417,103 +5041,139 @@
         <v>44985.639645428237</v>
       </c>
       <c r="I67" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="J67">
         <v>8904327584</v>
       </c>
       <c r="K67" t="s">
-        <v>483</v>
-      </c>
-      <c r="L67" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <v>5</v>
+      </c>
+      <c r="P67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="B68" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="C68" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="D68" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="E68" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="F68">
         <v>3217535</v>
       </c>
       <c r="G68" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H68" s="2">
         <v>45105.141875266207</v>
       </c>
       <c r="I68" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J68">
         <v>911383021</v>
       </c>
       <c r="K68" t="s">
-        <v>489</v>
-      </c>
-      <c r="L68" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>5</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68">
+        <v>5</v>
+      </c>
+      <c r="P68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="B69" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="C69" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="D69" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="E69" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="F69">
         <v>21772688</v>
       </c>
       <c r="G69" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H69" s="2">
         <v>45396.932660891202</v>
       </c>
       <c r="K69" t="s">
-        <v>496</v>
-      </c>
-      <c r="L69" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>6</v>
+      </c>
+      <c r="O69">
+        <v>5</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="B70" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="C70" t="s">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="D70" t="s">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="E70" t="s">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="F70">
         <v>28553496</v>
@@ -4525,135 +5185,183 @@
         <v>45733.44903703704</v>
       </c>
       <c r="I70" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="K70" t="s">
-        <v>502</v>
-      </c>
-      <c r="L70" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>5</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>5</v>
+      </c>
+      <c r="P70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>504</v>
+        <v>453</v>
       </c>
       <c r="B71" t="s">
-        <v>505</v>
+        <v>454</v>
       </c>
       <c r="C71" t="s">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="D71" t="s">
-        <v>507</v>
+        <v>456</v>
       </c>
       <c r="E71" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="F71">
         <v>10170803</v>
       </c>
       <c r="G71" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H71" s="2">
         <v>45106.667938321763</v>
       </c>
       <c r="I71" t="s">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="K71" t="s">
-        <v>343</v>
-      </c>
-      <c r="L71" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="L71">
+        <v>5</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71">
+        <v>5</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="B72" t="s">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="D72" t="s">
-        <v>512</v>
+        <v>461</v>
       </c>
       <c r="E72" t="s">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="F72">
         <v>16507674</v>
       </c>
       <c r="G72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H72" s="2">
         <v>45065.092290983797</v>
       </c>
       <c r="K72" t="s">
-        <v>514</v>
-      </c>
-      <c r="L72" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>6</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>516</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s">
-        <v>517</v>
+        <v>465</v>
       </c>
       <c r="C73" t="s">
-        <v>518</v>
+        <v>466</v>
       </c>
       <c r="D73" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="E73" t="s">
-        <v>520</v>
+        <v>468</v>
       </c>
       <c r="F73">
         <v>18404078</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H73" s="2">
         <v>45500.888102106481</v>
       </c>
       <c r="I73" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="J73">
         <v>1895731884</v>
       </c>
       <c r="K73" t="s">
-        <v>521</v>
-      </c>
-      <c r="L73" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73">
+        <v>5</v>
+      </c>
+      <c r="P73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>522</v>
+        <v>470</v>
       </c>
       <c r="B74" t="s">
-        <v>523</v>
+        <v>471</v>
       </c>
       <c r="C74" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
       <c r="D74" t="s">
-        <v>525</v>
+        <v>473</v>
       </c>
       <c r="E74" t="s">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="F74">
         <v>43827584</v>
@@ -4665,13 +5373,25 @@
         <v>45326.405218310189</v>
       </c>
       <c r="I74" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="K74" t="s">
-        <v>527</v>
-      </c>
-      <c r="L74" t="s">
-        <v>528</v>
+        <v>475</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74">
+        <v>5</v>
+      </c>
+      <c r="P74">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Property_list_with_predictions.xlsx
+++ b/Property_list_with_predictions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IITGN\Placement_prep\Real-Estate-Search-Engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DAA5CF-0D46-46ED-8AA9-E1A599842935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BEFD23-DE31-47D2-A5DE-22FF9267AB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -64,6 +64,9 @@
     <t>kitchens</t>
   </si>
   <si>
+    <t>bathrooms</t>
+  </si>
+  <si>
     <t>garages</t>
   </si>
   <si>
@@ -1479,9 +1482,6 @@
   </si>
   <si>
     <t>unfurnished,near-metro,investment-property,newly-built</t>
-  </si>
-  <si>
-    <t>bedrooms</t>
   </si>
 </sst>
 </file>
@@ -1850,11 +1850,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1900,42 +1906,42 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>476</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>48514810</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2">
         <v>44995.886962326389</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -1955,31 +1961,31 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>33047296</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2">
         <v>45962.178508356483</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1999,34 +2005,34 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>27629146</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2">
         <v>45528.874233738417</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -2046,37 +2052,37 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>24246550</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2">
         <v>44959.749589768522</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>7260968742</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2096,34 +2102,34 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>45638210</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2">
         <v>45588.959915671287</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2143,37 +2149,37 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>6058145</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2">
         <v>45338.958277800928</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7">
         <v>3560359452</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2193,34 +2199,34 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>37247350</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2">
         <v>45850.743326354168</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2240,25 +2246,25 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>12800556</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2">
         <v>45382.033201562503</v>
@@ -2267,7 +2273,7 @@
         <v>9627078693</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -2287,37 +2293,37 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10">
         <v>5566303</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="2">
         <v>44945.756836284723</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10">
         <v>917709000000</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -2337,37 +2343,37 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11">
         <v>26106262</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="2">
         <v>45855.168207037037</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11">
         <v>5089177270</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -2387,37 +2393,37 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F12">
         <v>37413863</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="2">
         <v>45943.598444224539</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12">
         <v>9259816416</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -2437,37 +2443,37 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F13">
         <v>23812388</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2">
         <v>45799.637583935182</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13">
         <v>1409107054</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2487,37 +2493,37 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14">
         <v>44102021</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2">
         <v>45395.600630347217</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14">
         <v>5950424146</v>
       </c>
       <c r="K14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -2537,31 +2543,31 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F15">
         <v>27014973</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="2">
         <v>45722.947957939818</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -2581,37 +2587,37 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16">
         <v>9462500</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="2">
         <v>45794.45106871528</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J16">
         <v>7724963955</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2631,34 +2637,34 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17">
         <v>26032673</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="2">
         <v>45394.109067048608</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -2678,31 +2684,31 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18">
         <v>10430907</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" s="2">
         <v>45262.951407048611</v>
       </c>
       <c r="K18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2722,34 +2728,34 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19">
         <v>18129280</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="2">
         <v>45232.225250972217</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -2769,34 +2775,34 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20">
         <v>48985310</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" s="2">
         <v>45349.515603113417</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2816,31 +2822,31 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F21">
         <v>5896790</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="2">
         <v>45624.068495914347</v>
       </c>
       <c r="K21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -2860,34 +2866,34 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F22">
         <v>21131805</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" s="2">
         <v>45660.345884884257</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22">
         <v>5</v>
@@ -2907,37 +2913,37 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23">
         <v>7621972</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H23" s="2">
         <v>44878.919944479167</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J23">
         <v>8605784848</v>
       </c>
       <c r="K23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2957,34 +2963,34 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24">
         <v>42383933</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" s="2">
         <v>45780.455911909718</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -3004,37 +3010,37 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25">
         <v>5528272</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H25" s="2">
         <v>45454.977059143523</v>
       </c>
       <c r="I25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J25">
         <v>1105464866</v>
       </c>
       <c r="K25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -3054,37 +3060,37 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26">
         <v>17889505</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" s="2">
         <v>45406.479802569447</v>
       </c>
       <c r="I26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J26">
         <v>2657208200</v>
       </c>
       <c r="K26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -3104,25 +3110,25 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F27">
         <v>24073220</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H27" s="2">
         <v>45257.617869872687</v>
@@ -3131,7 +3137,7 @@
         <v>917985000000</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -3151,34 +3157,34 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F28">
         <v>24142924</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28" s="2">
         <v>45874.384056041657</v>
       </c>
       <c r="I28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L28">
         <v>5</v>
@@ -3198,34 +3204,34 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F29">
         <v>9591522</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29" s="2">
         <v>45443.163208935177</v>
       </c>
       <c r="I29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L29">
         <v>3</v>
@@ -3245,37 +3251,37 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F30">
         <v>10382933</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H30" s="2">
         <v>45131.950540833343</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J30">
         <v>3735675343</v>
       </c>
       <c r="K30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3295,37 +3301,37 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F31">
         <v>10635838</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31" s="2">
         <v>45743.632672881948</v>
       </c>
       <c r="I31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J31">
         <v>3686192186</v>
       </c>
       <c r="K31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3345,37 +3351,37 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F32">
         <v>19668862</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H32" s="2">
         <v>45264.433823472224</v>
       </c>
       <c r="I32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J32">
         <v>5287722939</v>
       </c>
       <c r="K32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3395,37 +3401,37 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F33">
         <v>3265338</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H33" s="2">
         <v>45696.51508892361</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J33">
         <v>912225000000</v>
       </c>
       <c r="K33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -3445,34 +3451,34 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F34">
         <v>25326621</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H34" s="2">
         <v>45369.818937696757</v>
       </c>
       <c r="I34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L34">
         <v>3</v>
@@ -3492,37 +3498,37 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F35">
         <v>42574721</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H35" s="2">
         <v>45636.16145565972</v>
       </c>
       <c r="I35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J35">
         <v>912887000000</v>
       </c>
       <c r="K35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L35">
         <v>5</v>
@@ -3542,34 +3548,34 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F36">
         <v>38354323</v>
       </c>
       <c r="G36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H36" s="2">
         <v>45253.058835219897</v>
       </c>
       <c r="I36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3589,25 +3595,25 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D37" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E37" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F37">
         <v>6176514</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H37" s="2">
         <v>45849.305051076393</v>
@@ -3616,7 +3622,7 @@
         <v>2072223097</v>
       </c>
       <c r="K37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L37">
         <v>5</v>
@@ -3636,25 +3642,25 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F38">
         <v>48800176</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H38" s="2">
         <v>45640.834188865738</v>
@@ -3663,7 +3669,7 @@
         <v>6578082024</v>
       </c>
       <c r="K38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L38">
         <v>3</v>
@@ -3683,37 +3689,37 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D39" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E39" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F39">
         <v>38111649</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H39" s="2">
         <v>45015.52669150463</v>
       </c>
       <c r="I39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J39">
         <v>916896000000</v>
       </c>
       <c r="K39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L39">
         <v>5</v>
@@ -3733,37 +3739,37 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C40" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F40">
         <v>24090541</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H40" s="2">
         <v>45469.3907415625</v>
       </c>
       <c r="I40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J40">
         <v>8807536272</v>
       </c>
       <c r="K40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3783,34 +3789,34 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F41">
         <v>40753167</v>
       </c>
       <c r="G41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H41" s="2">
         <v>45051.248942905091</v>
       </c>
       <c r="I41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L41">
         <v>7</v>
@@ -3830,34 +3836,34 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F42">
         <v>6908151</v>
       </c>
       <c r="G42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H42" s="2">
         <v>45178.759870057867</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -3877,37 +3883,37 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D43" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F43">
         <v>6745273</v>
       </c>
       <c r="G43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H43" s="2">
         <v>44883.41687857639</v>
       </c>
       <c r="I43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J43">
         <v>914798000000</v>
       </c>
       <c r="K43" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L43">
         <v>5</v>
@@ -3927,34 +3933,34 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F44">
         <v>6728235</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44" s="2">
         <v>45326.942554479167</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -3974,37 +3980,37 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C45" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D45" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E45" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F45">
         <v>2277205</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H45" s="2">
         <v>45009.625931331022</v>
       </c>
       <c r="I45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J45">
         <v>8045061937</v>
       </c>
       <c r="K45" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -4024,37 +4030,37 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F46">
         <v>31822126</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46" s="2">
         <v>45339.635723599538</v>
       </c>
       <c r="I46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J46">
         <v>917605000000</v>
       </c>
       <c r="K46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -4074,34 +4080,34 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B47" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C47" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E47" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F47">
         <v>43409838</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H47" s="2">
         <v>45206.349669861112</v>
       </c>
       <c r="I47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L47">
         <v>5</v>
@@ -4121,31 +4127,31 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F48">
         <v>47386559</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H48" s="2">
         <v>45625.362730173612</v>
       </c>
       <c r="K48" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L48">
         <v>3</v>
@@ -4165,34 +4171,34 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F49">
         <v>14907237</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H49" s="2">
         <v>44943.734563124999</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L49">
         <v>5</v>
@@ -4212,31 +4218,31 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D50" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F50">
         <v>41223288</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H50" s="2">
         <v>45378.676123020843</v>
       </c>
       <c r="K50" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -4256,34 +4262,34 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D51" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F51">
         <v>27779525</v>
       </c>
       <c r="G51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H51" s="2">
         <v>45427.724697777783</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L51">
         <v>3</v>
@@ -4303,34 +4309,34 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F52">
         <v>41708565</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H52" s="2">
         <v>45383.665231701387</v>
       </c>
       <c r="I52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K52" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -4350,34 +4356,34 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D53" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E53" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F53">
         <v>5052334</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H53" s="2">
         <v>45386.765599525461</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L53">
         <v>5</v>
@@ -4397,31 +4403,31 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C54" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F54">
         <v>17515481</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H54" s="2">
         <v>44927.164107592587</v>
       </c>
       <c r="K54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -4441,34 +4447,34 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E55" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F55">
         <v>32061214</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H55" s="2">
         <v>45171.068037268516</v>
       </c>
       <c r="I55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K55" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -4488,34 +4494,34 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C56" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D56" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E56" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F56">
         <v>19001385</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H56" s="2">
         <v>45542.05270270833</v>
       </c>
       <c r="I56" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K56" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -4535,34 +4541,34 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C57" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E57" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F57">
         <v>34481144</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H57" s="2">
         <v>45197.112014467602</v>
       </c>
       <c r="I57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -4582,25 +4588,25 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B58" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D58" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E58" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F58">
         <v>11408047</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H58" s="2">
         <v>45103.334016446759</v>
@@ -4609,7 +4615,7 @@
         <v>9280406137</v>
       </c>
       <c r="K58" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -4629,34 +4635,34 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B59" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C59" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D59" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E59" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F59">
         <v>19069646</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59" s="2">
         <v>45194.557859351851</v>
       </c>
       <c r="I59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L59">
         <v>3</v>
@@ -4676,37 +4682,37 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C60" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E60" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F60">
         <v>30106465</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H60" s="2">
         <v>45697.94693672454</v>
       </c>
       <c r="I60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J60">
         <v>8798946863</v>
       </c>
       <c r="K60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -4726,37 +4732,37 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C61" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D61" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E61" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F61">
         <v>46393841</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H61" s="2">
         <v>45232.806246631953</v>
       </c>
       <c r="I61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J61">
         <v>911462000000</v>
       </c>
       <c r="K61" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L61">
         <v>5</v>
@@ -4776,37 +4782,37 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C62" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D62" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E62" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F62">
         <v>15251671</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H62" s="2">
         <v>45900.640626388893</v>
       </c>
       <c r="I62" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J62">
         <v>915962000000</v>
       </c>
       <c r="K62" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L62">
         <v>5</v>
@@ -4826,31 +4832,31 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B63" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C63" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D63" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E63" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F63">
         <v>41591513</v>
       </c>
       <c r="G63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H63" s="2">
         <v>45266.53151508102</v>
       </c>
       <c r="K63" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L63">
         <v>5</v>
@@ -4870,37 +4876,37 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C64" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D64" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E64" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F64">
         <v>38566476</v>
       </c>
       <c r="G64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H64" s="2">
         <v>45838.642993518522</v>
       </c>
       <c r="I64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J64">
         <v>669662326</v>
       </c>
       <c r="K64" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L64">
         <v>5</v>
@@ -4920,34 +4926,34 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B65" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C65" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D65" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E65" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F65">
         <v>3922424</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H65" s="2">
         <v>45330.169894525461</v>
       </c>
       <c r="I65" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L65">
         <v>5</v>
@@ -4967,37 +4973,37 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B66" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C66" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D66" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E66" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F66">
         <v>32195143</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H66" s="2">
         <v>45171.840529004628</v>
       </c>
       <c r="I66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J66">
         <v>917509000000</v>
       </c>
       <c r="K66" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -5017,37 +5023,37 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B67" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C67" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D67" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E67" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F67">
         <v>26584753</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H67" s="2">
         <v>44985.639645428237</v>
       </c>
       <c r="I67" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J67">
         <v>8904327584</v>
       </c>
       <c r="K67" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5067,37 +5073,37 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B68" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C68" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D68" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E68" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F68">
         <v>3217535</v>
       </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H68" s="2">
         <v>45105.141875266207</v>
       </c>
       <c r="I68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J68">
         <v>911383021</v>
       </c>
       <c r="K68" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -5117,31 +5123,31 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B69" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C69" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D69" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E69" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F69">
         <v>21772688</v>
       </c>
       <c r="G69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H69" s="2">
         <v>45396.932660891202</v>
       </c>
       <c r="K69" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L69">
         <v>3</v>
@@ -5161,34 +5167,34 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B70" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C70" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D70" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E70" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F70">
         <v>28553496</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H70" s="2">
         <v>45733.44903703704</v>
       </c>
       <c r="I70" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K70" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -5208,34 +5214,34 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B71" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C71" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D71" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E71" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F71">
         <v>10170803</v>
       </c>
       <c r="G71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H71" s="2">
         <v>45106.667938321763</v>
       </c>
       <c r="I71" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K71" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L71">
         <v>5</v>
@@ -5255,31 +5261,31 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D72" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E72" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F72">
         <v>16507674</v>
       </c>
       <c r="G72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H72" s="2">
         <v>45065.092290983797</v>
       </c>
       <c r="K72" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L72">
         <v>5</v>
@@ -5299,37 +5305,37 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C73" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D73" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E73" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F73">
         <v>18404078</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H73" s="2">
         <v>45500.888102106481</v>
       </c>
       <c r="I73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J73">
         <v>1895731884</v>
       </c>
       <c r="K73" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -5349,34 +5355,34 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B74" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C74" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D74" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E74" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F74">
         <v>43827584</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H74" s="2">
         <v>45326.405218310189</v>
       </c>
       <c r="I74" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K74" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L74">
         <v>1</v>
